--- a/eclipse/correlation/correlation_eclipse_1.xlsx
+++ b/eclipse/correlation/correlation_eclipse_1.xlsx
@@ -471,31 +471,36 @@
           <t>0.00318</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.06531</t>
+        </is>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.002509191178027626</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>332.4375</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>36</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>332.4375</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>108</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>105</v>
       </c>
     </row>
@@ -523,31 +528,36 @@
           <t>0.06578</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.001227683302393919</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1843.863888888889</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>1843.863888888889</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>2</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -575,31 +585,36 @@
           <t>0.04703</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.05101</t>
+        </is>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.0002400367742999085</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>235.6991666666667</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>235.6991666666667</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>6</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -627,31 +642,36 @@
           <t>0.00286</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.06187</t>
+        </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.002828833316241492</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>443.4619444444444</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>4</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>443.4619444444444</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>12</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>12</v>
       </c>
     </row>
@@ -679,31 +699,36 @@
           <t>0.00277</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.06323</t>
+        </is>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.004669213427387585</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>449.2013888888889</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
         <v>449.2013888888889</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -731,31 +756,36 @@
           <t>0.00010</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.06323</t>
+        </is>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.001838297862340467</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>518.7630555555555</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>6</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>518.7630555555555</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>15</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>18</v>
       </c>
     </row>
@@ -783,31 +813,36 @@
           <t>0.06682</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.06569</t>
+        </is>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.003815216863170928</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>514.8277777777778</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>11</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>514.8277777777778</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>33</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>36</v>
       </c>
     </row>
@@ -835,31 +870,36 @@
           <t>0.01095</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.001029206300910475</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>588.2583333333333</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>588.2583333333333</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>3</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -887,31 +927,36 @@
           <t>0.07668</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.06501</t>
+        </is>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.008016427397947317</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>682.1633333333333</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
         <v>682.1633333333333</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -939,31 +984,36 @@
           <t>0.06682</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.0002851381189280918</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>411.4547222222222</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>11.76470588235294</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
         <v>411.4547222222222</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,31 +1041,36 @@
           <t>0.00367</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.06187</t>
+        </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.001124243348095551</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>419.9575</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>419.9575</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,31 +1098,36 @@
           <t>0.01095</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.03690</t>
+        </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.0002237013143944748</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>393.9983333333333</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>393.9983333333333</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>3</v>
       </c>
     </row>

--- a/eclipse/correlation/correlation_eclipse_1.xlsx
+++ b/eclipse/correlation/correlation_eclipse_1.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,467 +449,455 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2478</v>
+        <v>9957</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.09674</t>
+          <t>0.04259</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.00089</t>
+          <t>0.00000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13707</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.00318</t>
-        </is>
+          <t>0.01482</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.06531</t>
+          <t>0.06461</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002509191178027626</v>
+        <v>0.008135740561068444</v>
       </c>
       <c r="I3" t="n">
-        <v>332.4375</v>
+        <v>124.8577777777778</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>332.4375</v>
+        <v>124.8577777777778</v>
       </c>
       <c r="N3" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="O3" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2642</v>
+        <v>26141</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.00212</t>
+          <t>0.00040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.00017</t>
+          <t>0.00149</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00021</t>
+          <t>0.00134</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.06578</t>
+          <t>0.12221</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.06283</t>
+          <t>0.05329</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001227683302393919</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1843.863888888889</v>
+        <v>279.4913888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.174603174603174</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1843.863888888889</v>
+        <v>279.4913888888889</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>481</v>
+        <v>2478</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.00286</t>
+          <t>0.09674</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.00178</t>
+          <t>0.00089</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.01424</t>
+          <t>0.13707</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.04703</t>
+          <t>0.00318</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.05101</t>
+          <t>0.06531</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002400367742999085</v>
+        <v>0.002509191178027626</v>
       </c>
       <c r="I5" t="n">
-        <v>235.6991666666667</v>
+        <v>332.4375</v>
       </c>
       <c r="J5" t="n">
-        <v>12.90322580645161</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="M5" t="n">
-        <v>235.6991666666667</v>
+        <v>332.4375</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>794</v>
+        <v>29174</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.03966</t>
+          <t>0.00095</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.00089</t>
+          <t>0.00149</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13707</t>
+          <t>0.00520</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00286</t>
+          <t>0.15558</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.06187</t>
+          <t>0.05329</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002828833316241492</v>
+        <v>0.04710400397900299</v>
       </c>
       <c r="I6" t="n">
-        <v>443.4619444444444</v>
+        <v>540.8863888888889</v>
       </c>
       <c r="J6" t="n">
-        <v>5.555555555555555</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M6" t="n">
-        <v>443.4619444444444</v>
+        <v>540.8863888888889</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="O6" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.00395</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.00016</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00375</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.00277</t>
-        </is>
+        <v>53309</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.06323</t>
+          <t>0.03409</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004669213427387585</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>449.2013888888889</v>
+        <v>4.405277777777778</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>449.2013888888889</v>
+        <v>4.405277777777778</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>296</v>
+        <v>37799</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.01298</t>
+          <t>0.00225</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.00435</t>
+          <t>0.00017</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00050</t>
+          <t>0.00016</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00010</t>
+          <t>0.06590</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.06323</t>
+          <t>0.06500</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001838297862340467</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>518.7630555555555</v>
+        <v>2169.088611111111</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="M8" t="n">
-        <v>518.7630555555555</v>
+        <v>1861.254166666667</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2253</v>
+        <v>46143</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.21193</t>
+          <t>0.00285</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.00452</t>
+          <t>0.00149</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00418</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.06682</t>
+          <t>0.19548</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.06569</t>
+          <t>0.05090</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003815216863170928</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>514.8277777777778</v>
+        <v>201.8202777777778</v>
       </c>
       <c r="J9" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>514.8277777777778</v>
+        <v>201.8202777777778</v>
       </c>
       <c r="N9" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>590</v>
+        <v>38689</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.22770</t>
+          <t>0.00995</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.00090</t>
+          <t>0.00000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.13985</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.01095</t>
-        </is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.06147</t>
+          <t>0.06323</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001029206300910475</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>588.2583333333333</v>
+        <v>709.9191666666667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M10" t="n">
-        <v>588.2583333333333</v>
+        <v>709.9191666666667</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8160</v>
+        <v>329</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.00240</t>
+          <t>0.00047</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -919,215 +907,8542 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00021</t>
+          <t>0.00006</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.07668</t>
+          <t>0.02885</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.06501</t>
+          <t>0.06542</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.008016427397947317</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>682.1633333333333</v>
+        <v>713.6861111111111</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.264150943396226</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="M11" t="n">
-        <v>682.1633333333333</v>
+        <v>671.8236111111111</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13001</v>
+        <v>34928</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.21090</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.00074</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>0.00000</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.06682</t>
-        </is>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.06283</t>
+          <t>0.03571</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002851381189280918</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>411.4547222222222</v>
+        <v>1162.579166666667</v>
       </c>
       <c r="J12" t="n">
-        <v>11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>411.4547222222222</v>
+        <v>1162.579166666667</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1904</v>
+        <v>22709</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.02180</t>
+          <t>0.00099</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.00452</t>
+          <t>0.00149</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00001</t>
+          <t>0.00150</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.00367</t>
+          <t>0.17652</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.06187</t>
+          <t>0.06392</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001124243348095551</v>
+        <v>0.003404641253948635</v>
       </c>
       <c r="I13" t="n">
-        <v>419.9575</v>
+        <v>264.3922222222222</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.542372881355933</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M13" t="n">
-        <v>419.9575</v>
+        <v>247.0841666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>46452</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.00048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00600</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>439.9225</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>439.9225</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>43864</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1814.139166666667</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1814.139166666667</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38688</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.00060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>67.19027777777778</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>67.19027777777778</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42222</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.00069</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00249</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.14192</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>966.9908333333333</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>966.9908333333333</v>
+      </c>
+      <c r="N17" t="n">
+        <v>31</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36309</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.00061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00134</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.14009</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1845.319166666667</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1845.319166666667</v>
+      </c>
+      <c r="N18" t="n">
+        <v>24</v>
+      </c>
+      <c r="O18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64680</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.00004</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>73.35666666666667</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>73.35666666666667</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59466</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.00020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.13323</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>492.9822222222222</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" t="n">
+        <v>492.9822222222222</v>
+      </c>
+      <c r="N20" t="n">
+        <v>32</v>
+      </c>
+      <c r="O20" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>67539</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2117.199722222222</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>11</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2117.199722222222</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>72134</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.00004</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2518.329722222222</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2518.329722222222</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42108</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.00011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.00430</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>327.8683333333333</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" t="n">
+        <v>327.8683333333333</v>
+      </c>
+      <c r="N23" t="n">
+        <v>35</v>
+      </c>
+      <c r="O23" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>67503</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.00012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.00430</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>476.9116666666667</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.15606936416185</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>476.9116666666667</v>
+      </c>
+      <c r="N24" t="n">
+        <v>48</v>
+      </c>
+      <c r="O24" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.00062</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.00006</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00361</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.05090</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.002473175831548368</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1755.458333333333</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1755.458333333333</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37991</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.00044</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00021</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.02885</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.06501</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>795.7766666666666</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15</v>
+      </c>
+      <c r="M26" t="n">
+        <v>795.7766666666666</v>
+      </c>
+      <c r="N26" t="n">
+        <v>36</v>
+      </c>
+      <c r="O26" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31807</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.00137</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00576</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.14762</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.06500</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>829.7894444444445</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>829.7894444444445</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>16679</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1326.729166666667</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1326.729166666667</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44491</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>455</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.01017</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1700.559722222222</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1700.559722222222</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2642</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.00212</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00021</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.06578</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001227683302393919</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1843.863888888889</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1843.863888888889</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57639</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.00104</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.06420</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1140.9375</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1140.9375</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>22218</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00415</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.12722</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0002571130757670181</v>
+      </c>
+      <c r="I33" t="n">
+        <v>215.8638888888889</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>215.8638888888889</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>203.79</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>203.79</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41965</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.00027</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00006</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.01808</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>300.8644444444444</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>186.5702777777778</v>
+      </c>
+      <c r="N35" t="n">
+        <v>15</v>
+      </c>
+      <c r="O35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15182</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.00052</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00222</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.09661</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.05329</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0009301303611680581</v>
+      </c>
+      <c r="I36" t="n">
+        <v>664.0030555555555</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>664.0030555555555</v>
+      </c>
+      <c r="N36" t="n">
+        <v>18</v>
+      </c>
+      <c r="O36" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>48542</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.00038</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00006</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.01033</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.06392</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>513.5305555555556</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>11</v>
+      </c>
+      <c r="M37" t="n">
+        <v>513.5305555555556</v>
+      </c>
+      <c r="N37" t="n">
+        <v>26</v>
+      </c>
+      <c r="O37" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22705</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.00264</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.00011</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00049</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0005596617002988485</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1725.720277777778</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.020408163265306</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>12</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1629.890555555555</v>
+      </c>
+      <c r="N38" t="n">
+        <v>29</v>
+      </c>
+      <c r="O38" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>48055</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.00169</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00576</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.15732</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>266.2580555555555</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>266.2580555555555</v>
+      </c>
+      <c r="N39" t="n">
+        <v>18</v>
+      </c>
+      <c r="O39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>481</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.00286</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.00178</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01424</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.04703</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.05101</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0002400367742999085</v>
+      </c>
+      <c r="I40" t="n">
+        <v>235.6991666666667</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12.90322580645161</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>235.6991666666667</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17871</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.00054</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00134</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.14762</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>430.8005555555555</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.247191011235955</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9</v>
+      </c>
+      <c r="M41" t="n">
+        <v>430.8005555555555</v>
+      </c>
+      <c r="N41" t="n">
+        <v>27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>23673</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.00095</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00494</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.14620</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.05329</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.004653598173705814</v>
+      </c>
+      <c r="I42" t="n">
+        <v>221.8280555555556</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>221.8280555555556</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15</v>
+      </c>
+      <c r="O42" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27311</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.00036</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.01009</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>999.415</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>999.415</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>15232</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.00075</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00520</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.15558</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>565.9627777777778</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>11</v>
+      </c>
+      <c r="M44" t="n">
+        <v>565.9627777777778</v>
+      </c>
+      <c r="N44" t="n">
+        <v>33</v>
+      </c>
+      <c r="O44" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>15181</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.00081</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00201</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.15020</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01792911699991422</v>
+      </c>
+      <c r="I45" t="n">
+        <v>158.1091666666667</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>158.1091666666667</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9</v>
+      </c>
+      <c r="O45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17801</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.00160</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00550</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.15687</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.05090</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.007724670895502728</v>
+      </c>
+      <c r="I46" t="n">
+        <v>322.1008333333334</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>11</v>
+      </c>
+      <c r="M46" t="n">
+        <v>322.1008333333334</v>
+      </c>
+      <c r="N46" t="n">
+        <v>33</v>
+      </c>
+      <c r="O46" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39007</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.00050</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3124.281388888889</v>
+      </c>
+      <c r="J47" t="n">
+        <v>10</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3124.281388888889</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>794</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.03966</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.13707</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.00286</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.06187</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.002828833316241492</v>
+      </c>
+      <c r="I48" t="n">
+        <v>443.4619444444444</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>443.4619444444444</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12</v>
+      </c>
+      <c r="O48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17882</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.00141</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1200.164444444444</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1200.164444444444</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>46601</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.00098</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00201</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.17652</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.05329</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>252.1013888888889</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.593625498007968</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>26</v>
+      </c>
+      <c r="M50" t="n">
+        <v>249.1944444444445</v>
+      </c>
+      <c r="N50" t="n">
+        <v>78</v>
+      </c>
+      <c r="O50" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>21505</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.00071</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.00009</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1023.48</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1023.48</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49968</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2092.5425</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>20</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2092.5425</v>
+      </c>
+      <c r="N52" t="n">
+        <v>40</v>
+      </c>
+      <c r="O52" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38536</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.00050</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>340.7419444444445</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>340.7419444444445</v>
+      </c>
+      <c r="N53" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.00395</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.00016</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00375</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.00277</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.06323</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.004669213427387585</v>
+      </c>
+      <c r="I54" t="n">
+        <v>449.2013888888889</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>449.2013888888889</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>19846</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.00146</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.07706</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>934.53</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>934.53</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>628</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.01230</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.00091</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13804</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.00256</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.06323</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>642.6969444444444</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7</v>
+      </c>
+      <c r="M56" t="n">
+        <v>642.6969444444444</v>
+      </c>
+      <c r="N56" t="n">
+        <v>15</v>
+      </c>
+      <c r="O56" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>30224</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.20237</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.01095</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.06433</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9911.0725</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11.62790697674419</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2016.575277777778</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39008</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.00056</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.06392</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>868.4538888888889</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>868.4538888888889</v>
+      </c>
+      <c r="N58" t="n">
+        <v>11</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17262</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00134</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.08479</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24.01694444444444</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>24.01694444444444</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35057</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.00049</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00150</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.13254</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.05329</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>666.9080555555555</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" t="n">
+        <v>666.9080555555555</v>
+      </c>
+      <c r="N60" t="n">
+        <v>12</v>
+      </c>
+      <c r="O60" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27988</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.00180</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00576</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.14209</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>169.8077777777778</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>169.8077777777778</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39778</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.00121</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00249</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.14459</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>195.1425</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>195.1425</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.00051</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>153.3036111111111</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>8</v>
+      </c>
+      <c r="M63" t="n">
+        <v>153.3036111111111</v>
+      </c>
+      <c r="N63" t="n">
+        <v>24</v>
+      </c>
+      <c r="O63" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7919</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.01963</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.01447</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.00516324451400982</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.753611111111111</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.753611111111111</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17391</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.00457</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.00051</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01258</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.08658</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.05101</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>770.8152777777777</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6</v>
+      </c>
+      <c r="M65" t="n">
+        <v>770.8152777777777</v>
+      </c>
+      <c r="N65" t="n">
+        <v>18</v>
+      </c>
+      <c r="O65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66773</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.00019</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.04060</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1194.991111111111</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.380952380952381</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>10</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1194.991111111111</v>
+      </c>
+      <c r="N66" t="n">
+        <v>30</v>
+      </c>
+      <c r="O66" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>49351</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.00053</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>34.14555555555555</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>9</v>
+      </c>
+      <c r="M67" t="n">
+        <v>34.14555555555555</v>
+      </c>
+      <c r="N67" t="n">
+        <v>27</v>
+      </c>
+      <c r="O67" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57968</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.00015</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.13123</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.05329</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1266.088333333333</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1266.088333333333</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9</v>
+      </c>
+      <c r="O68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>44241</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.00298</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00222</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.19775</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.05461</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>302.5194444444444</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.639344262295082</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>48</v>
+      </c>
+      <c r="M69" t="n">
+        <v>302.5194444444444</v>
+      </c>
+      <c r="N69" t="n">
+        <v>142</v>
+      </c>
+      <c r="O69" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38957</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2690.734166666667</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2690.734166666667</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27571</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.00240</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00046</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.01525870606938915</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1791.860833333333</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1791.860833333333</v>
+      </c>
+      <c r="N71" t="n">
+        <v>12</v>
+      </c>
+      <c r="O71" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39079</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.00050</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>989.1922222222222</v>
+      </c>
+      <c r="J72" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>989.1922222222222</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>17650</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.21219</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01482</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.01107</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.06420</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.002604997820058823</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1077.329444444444</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1077.329444444444</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37419</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.00121</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00262</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.15012</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0001314370578701426</v>
+      </c>
+      <c r="I74" t="n">
+        <v>286.1125</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.620087336244541</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>20</v>
+      </c>
+      <c r="M74" t="n">
+        <v>286.0866666666666</v>
+      </c>
+      <c r="N74" t="n">
+        <v>60</v>
+      </c>
+      <c r="O74" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>15183</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.00008</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.12722</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0005669423337045078</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1610.7275</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1610.7275</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.00179</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.00011</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.00256</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.06148</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0009683540254948986</v>
+      </c>
+      <c r="I76" t="n">
+        <v>550.3413888888889</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.063291139240507</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6</v>
+      </c>
+      <c r="M76" t="n">
+        <v>550.3413888888889</v>
+      </c>
+      <c r="N76" t="n">
+        <v>18</v>
+      </c>
+      <c r="O76" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>51495</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2823.309166666666</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2823.309166666666</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>47695</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.04060</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2132.899722222222</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2132.899722222222</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6</v>
+      </c>
+      <c r="O78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>15839</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.00567</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00547</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.19775</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.05090</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>846.735</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.380952380952381</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8</v>
+      </c>
+      <c r="M79" t="n">
+        <v>846.735</v>
+      </c>
+      <c r="N79" t="n">
+        <v>24</v>
+      </c>
+      <c r="O79" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>18</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.00045</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01258</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.01447</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>75.16305555555556</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>75.16305555555556</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>17212</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.00172</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.00009</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00938</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.01447</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.01112659023060456</v>
+      </c>
+      <c r="I81" t="n">
+        <v>330.1733333333333</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>330.1733333333333</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>296</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.01298</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.00435</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00050</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.06323</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.001838297862340467</v>
+      </c>
+      <c r="I82" t="n">
+        <v>518.7630555555555</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M82" t="n">
+        <v>518.7630555555555</v>
+      </c>
+      <c r="N82" t="n">
+        <v>15</v>
+      </c>
+      <c r="O82" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>50957</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.06190</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>103.4327777777778</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3</v>
+      </c>
+      <c r="M83" t="n">
+        <v>103.4327777777778</v>
+      </c>
+      <c r="N83" t="n">
+        <v>9</v>
+      </c>
+      <c r="O83" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56324</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.00045</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01258</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.01447</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>12.43027777777778</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>12.43027777777778</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+      <c r="O84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32655</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-0.00000</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.05484</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1678.608611111111</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1678.608611111111</v>
+      </c>
+      <c r="N85" t="n">
+        <v>18</v>
+      </c>
+      <c r="O85" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52104</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.00025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0.00437</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00036</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1169.380833333333</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1169.380833333333</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8</v>
+      </c>
+      <c r="O86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>30511</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.00142</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-0.00000</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.05090</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>13.45972222222222</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>13.45972222222222</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17468</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.00112</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.00011</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00049</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.00009</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>480.1713888888889</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>4</v>
+      </c>
+      <c r="M88" t="n">
+        <v>480.1713888888889</v>
+      </c>
+      <c r="N88" t="n">
+        <v>12</v>
+      </c>
+      <c r="O88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>15210</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.00063</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.15902</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.05090</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>375.595</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>375.595</v>
+      </c>
+      <c r="N89" t="n">
+        <v>6</v>
+      </c>
+      <c r="O89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>27483</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.00124</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.02174</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>18.32388888888889</v>
+      </c>
+      <c r="J90" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5</v>
+      </c>
+      <c r="M90" t="n">
+        <v>18.31611111111111</v>
+      </c>
+      <c r="N90" t="n">
+        <v>15</v>
+      </c>
+      <c r="O90" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>8525</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.02041</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.04060</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>497.515</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8</v>
+      </c>
+      <c r="M91" t="n">
+        <v>497.515</v>
+      </c>
+      <c r="N91" t="n">
+        <v>24</v>
+      </c>
+      <c r="O91" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39291</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0.00051</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1096.5875</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1096.5875</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8</v>
+      </c>
+      <c r="O92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>25405</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0.00475</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00576</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.15732</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>318.4669444444444</v>
+      </c>
+      <c r="J93" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6</v>
+      </c>
+      <c r="M93" t="n">
+        <v>318.4669444444444</v>
+      </c>
+      <c r="N93" t="n">
+        <v>18</v>
+      </c>
+      <c r="O93" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0.00063</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00030</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.03569</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>871.3486111111112</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>74</v>
+      </c>
+      <c r="M94" t="n">
+        <v>871.3486111111112</v>
+      </c>
+      <c r="N94" t="n">
+        <v>222</v>
+      </c>
+      <c r="O94" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>44014</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0.00041</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00222</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.14762</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>297.9769444444444</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>13</v>
+      </c>
+      <c r="M95" t="n">
+        <v>297.9769444444444</v>
+      </c>
+      <c r="N95" t="n">
+        <v>41</v>
+      </c>
+      <c r="O95" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>43803</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0.00309</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01632</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>698.3461111111111</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>698.3461111111111</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10749</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0.00445</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.13707</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>195.5366666666667</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>195.5366666666667</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>67135</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0.01708</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01632</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.06323</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2178.855833333334</v>
+      </c>
+      <c r="J98" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2174.385</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>78118</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0.00031</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00134</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.14209</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1077.484166666667</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1077.484166666667</v>
+      </c>
+      <c r="N99" t="n">
+        <v>12</v>
+      </c>
+      <c r="O99" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>15203</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0.00080</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.14009</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1612.798888888889</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.819277108433735</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>5</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1612.798888888889</v>
+      </c>
+      <c r="N100" t="n">
+        <v>15</v>
+      </c>
+      <c r="O100" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2253</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0.21193</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0.00452</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.06682</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.06569</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.003815216863170928</v>
+      </c>
+      <c r="I101" t="n">
+        <v>514.8277777777778</v>
+      </c>
+      <c r="J101" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4</v>
+      </c>
+      <c r="L101" t="n">
+        <v>11</v>
+      </c>
+      <c r="M101" t="n">
+        <v>514.8277777777778</v>
+      </c>
+      <c r="N101" t="n">
+        <v>33</v>
+      </c>
+      <c r="O101" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>26963</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0.00154</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00047</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.00234</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.06188</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.0004716793014841633</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1251.208055555556</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>8</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1251.208055555556</v>
+      </c>
+      <c r="N102" t="n">
+        <v>21</v>
+      </c>
+      <c r="O102" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>30441</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0.00032</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00047</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1833.713055555555</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>12</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1639.905277777778</v>
+      </c>
+      <c r="N103" t="n">
+        <v>30</v>
+      </c>
+      <c r="O103" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0.00011</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.12722</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.002052199316418474</v>
+      </c>
+      <c r="I104" t="n">
+        <v>345.8408333333333</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>345.8408333333333</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>15191</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0.00068</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00222</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.15732</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0002308340801036289</v>
+      </c>
+      <c r="I105" t="n">
+        <v>132.5033333333333</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>6</v>
+      </c>
+      <c r="M105" t="n">
+        <v>132.5033333333333</v>
+      </c>
+      <c r="N105" t="n">
+        <v>18</v>
+      </c>
+      <c r="O105" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>56831</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0.00180</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00576</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.15958</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.05329</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>637.5641666666667</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>637.5641666666667</v>
+      </c>
+      <c r="N106" t="n">
+        <v>6</v>
+      </c>
+      <c r="O106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>35</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0.00972</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0.00045</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01258</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.737777777777778</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.737777777777778</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0.00086</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0.13123</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>23.26333333333333</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>23.26333333333333</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>58855</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0.00104</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.06420</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>935.2694444444444</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>935.2694444444444</v>
+      </c>
+      <c r="N109" t="n">
+        <v>6</v>
+      </c>
+      <c r="O109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>24912</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.01447</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>123.6422222222222</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>123.6422222222222</v>
+      </c>
+      <c r="N110" t="n">
+        <v>6</v>
+      </c>
+      <c r="O110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>47</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0.02159</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.13707</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.00262</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.06187</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1396.330277777778</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1396.330277777778</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>35426</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>6</v>
+      </c>
+      <c r="O112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>27609</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0.04710</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0.00131</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.14515</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.06571</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>80.435</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>80.435</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>14845</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0.03130</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.14107</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.06420</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.496388888888889</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.496388888888889</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>38958</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0.00056</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>943.1713888888889</v>
+      </c>
+      <c r="J115" t="n">
+        <v>7.017543859649122</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>926.6205555555556</v>
+      </c>
+      <c r="N115" t="n">
+        <v>10</v>
+      </c>
+      <c r="O115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>63204</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0.05179</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.02788</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.06228</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1892.927777777778</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1892.927777777778</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4440</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0.04629</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.13707</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.05484</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>183.4905555555555</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>183.4905555555555</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>29206</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0.00222</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0.00023</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.08658</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.01197</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>660.1836111111111</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>660.1836111111111</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10176</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0.00244</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0.00015</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00361</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.00256</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.06188</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>400.3838888888889</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>9</v>
+      </c>
+      <c r="M119" t="n">
+        <v>400.3838888888889</v>
+      </c>
+      <c r="N119" t="n">
+        <v>27</v>
+      </c>
+      <c r="O119" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>39</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0.03776</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0.00127</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.14147</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.06114</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.06325</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>642.1347222222222</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M120" t="n">
+        <v>642.1347222222222</v>
+      </c>
+      <c r="N120" t="n">
+        <v>9</v>
+      </c>
+      <c r="O120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>56986</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0.00045</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>334.8763888888889</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>334.8763888888889</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0.00162</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00047</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.00234</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.06188</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1009.658055555556</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1009.658055555556</v>
+      </c>
+      <c r="N122" t="n">
+        <v>6</v>
+      </c>
+      <c r="O122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>54808</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0.00211</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0.00045</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.06114</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>510.5591666666667</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>510.5591666666667</v>
+      </c>
+      <c r="N123" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>590</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0.22770</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0.00090</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.13985</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.01095</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.001029206300910475</v>
+      </c>
+      <c r="I124" t="n">
+        <v>588.2583333333333</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>588.2583333333333</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3</v>
+      </c>
+      <c r="O124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>26657</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0.00430</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0.00009</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00939</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.06573</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>124.05</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6.106870229007633</v>
+      </c>
+      <c r="K125" t="n">
+        <v>6</v>
+      </c>
+      <c r="L125" t="n">
+        <v>20</v>
+      </c>
+      <c r="M125" t="n">
+        <v>98.35888888888888</v>
+      </c>
+      <c r="N125" t="n">
+        <v>60</v>
+      </c>
+      <c r="O125" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>37603</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0.00014</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.873333333333333</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>5.873333333333333</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1709</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0.00422</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0.00045</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00018</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.14982</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.05090</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>521.7258333333333</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.174603174603174</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>7</v>
+      </c>
+      <c r="M127" t="n">
+        <v>521.7258333333333</v>
+      </c>
+      <c r="N127" t="n">
+        <v>21</v>
+      </c>
+      <c r="O127" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>75401</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0.00063</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>-0.00000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00030</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.00871</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>661.9008333333334</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>11</v>
+      </c>
+      <c r="M128" t="n">
+        <v>661.9008333333334</v>
+      </c>
+      <c r="N128" t="n">
+        <v>33</v>
+      </c>
+      <c r="O128" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5892</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0.04103</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13707</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.06420</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>599.2047222222222</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>599.2047222222222</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>71343</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0.00021</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00019</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.03415</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>196.7833333333333</v>
+      </c>
+      <c r="J130" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>4</v>
+      </c>
+      <c r="M130" t="n">
+        <v>83.94222222222223</v>
+      </c>
+      <c r="N130" t="n">
+        <v>12</v>
+      </c>
+      <c r="O130" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>17720</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0.20799</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.13707</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.01146</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.03966</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>424.7005555555556</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>424.7005555555556</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>60840</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0.00028</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0.13123</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.06571</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>559.2472222222223</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5.970149253731343</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4</v>
+      </c>
+      <c r="L132" t="n">
+        <v>7</v>
+      </c>
+      <c r="M132" t="n">
+        <v>450.4761111111111</v>
+      </c>
+      <c r="N132" t="n">
+        <v>15</v>
+      </c>
+      <c r="O132" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>27605</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0.00030</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00006</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.02098</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.06501</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>664.9061111111112</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>5</v>
+      </c>
+      <c r="L133" t="n">
+        <v>6</v>
+      </c>
+      <c r="M133" t="n">
+        <v>664.9061111111112</v>
+      </c>
+      <c r="N133" t="n">
+        <v>10</v>
+      </c>
+      <c r="O133" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>39740</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>60791</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0.00099</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2591.812777777778</v>
+      </c>
+      <c r="J135" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1398.226666666667</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>18449</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0.00202</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0.00006</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00362</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.00256</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>262.3494444444444</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>262.3494444444444</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
+      <c r="O136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>69925</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1198.5375</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1198.5375</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>24952</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0.02528</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.00041</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.06500</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.01396181648002258</v>
+      </c>
+      <c r="I138" t="n">
+        <v>506.1333333333333</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>506.1333333333333</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>37190</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0.00003</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.03569</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>723.6158333333333</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.651162790697675</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>6</v>
+      </c>
+      <c r="M139" t="n">
+        <v>719.8538888888888</v>
+      </c>
+      <c r="N139" t="n">
+        <v>18</v>
+      </c>
+      <c r="O139" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>49868</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0.00054</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>841.6611111111112</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>841.6611111111112</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>15423</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0.21043</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0.00090</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.14332</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.01095</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.06190</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>297.0405555555556</v>
+      </c>
+      <c r="J141" t="n">
+        <v>9.523809523809524</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2</v>
+      </c>
+      <c r="M141" t="n">
+        <v>297.0405555555556</v>
+      </c>
+      <c r="N141" t="n">
+        <v>6</v>
+      </c>
+      <c r="O141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>3003</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0.00009</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>503.8819444444445</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>503.8819444444445</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>81341</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>712.2238888888888</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>712.2238888888888</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>7931</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0.00007</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>-0.00000</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.05090</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>51.53</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>51.53</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>75534</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0.01300</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>-0.00000</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01484</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.03569</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>73.34916666666666</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>73.34916666666666</v>
+      </c>
+      <c r="N145" t="n">
+        <v>6</v>
+      </c>
+      <c r="O145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>56428</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0.00380</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.03569</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>436.6627777777778</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>436.6627777777778</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>55407</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>664.8366666666667</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>664.8366666666667</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>8160</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0.00240</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00021</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.07668</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.06501</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.008016427397947317</v>
+      </c>
+      <c r="I148" t="n">
+        <v>682.1633333333333</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>682.1633333333333</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>10577</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0.01346</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0.00082</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00938</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.04061</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>357.7561111111111</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>357.7561111111111</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>16781</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0.02745</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0.06114</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.01197</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>387.1577777777778</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>3</v>
+      </c>
+      <c r="M150" t="n">
+        <v>387.1577777777778</v>
+      </c>
+      <c r="N150" t="n">
+        <v>9</v>
+      </c>
+      <c r="O150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>13001</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0.21090</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0.00074</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0.06682</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.06283</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0002851381189280918</v>
+      </c>
+      <c r="I151" t="n">
+        <v>411.4547222222222</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>411.4547222222222</v>
+      </c>
+      <c r="N151" t="n">
+        <v>5</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>54695</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0.03069</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0.00010</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.01632</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.04988</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>86</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0.01091</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.14107</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.00262</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.05484</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.1836111111111111</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.1836111111111111</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>38297</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0.01162</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0.00430</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.00600</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>247.1425</v>
+      </c>
+      <c r="J154" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>247.1425</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>18673</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0.00237</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0.00149</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00150</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.08658</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.02174</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.02458909740912299</v>
+      </c>
+      <c r="I155" t="n">
+        <v>267.1105555555555</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>267.1105555555555</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>40515</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>190.2216666666667</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>190.2216666666667</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>66367</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0.00043</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>37.95722222222222</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>37.95722222222222</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0.02180</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0.00452</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00001</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.00367</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.06187</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.001124243348095551</v>
+      </c>
+      <c r="I158" t="n">
+        <v>419.9575</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>419.9575</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>37140</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0.02239</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.01482</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.03409</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>418.3513888888889</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>418.3513888888889</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
         <v>8130</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>0.20853</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>0.00430</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>0.01482</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>0.01095</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>0.03690</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.0002237013143944748</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I160" t="n">
         <v>393.9983333333333</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
         <v>393.9983333333333</v>
       </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>26825</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0.00008</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>95.35583333333334</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>95.35583333333334</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>59428</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0.00135</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0.00002</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.00286</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0.00220</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.01447</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>71.11944444444444</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>71.11944444444444</v>
+      </c>
+      <c r="N162" t="n">
+        <v>9</v>
+      </c>
+      <c r="O162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>73728</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0.00000</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0.00430</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.04901</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>48.47583333333333</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>48.47583333333333</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>57661</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0.00886</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0.00089</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.13707</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.06187</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>48376</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0.20257</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0.01095</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.06147</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2.842777777777778</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2.842777777777778</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="n">
         <v>3</v>
       </c>
     </row>
